--- a/InputData/cpi.xlsx
+++ b/InputData/cpi.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="132" windowWidth="20100" windowHeight="7416"/>
+    <workbookView xWindow="285" yWindow="135" windowWidth="20100" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -26,18 +26,12 @@
     <t>U.S. Bureau of Labor Statistics</t>
   </si>
   <si>
-    <t>http://www.bls.gov/cpi/cpid1506.pdf</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
     <t>CPI-U</t>
   </si>
   <si>
-    <t>Pages 73, Table 24 (continued)</t>
-  </si>
-  <si>
     <t>CPI Detailed Report: Data for June 2015</t>
   </si>
   <si>
@@ -54,6 +48,12 @@
   </si>
   <si>
     <t>Multiply by to get 2012 Dollars</t>
+  </si>
+  <si>
+    <t>http://www.bls.gov/cpi/cpid1512.pdf</t>
+  </si>
+  <si>
+    <t>Page 74, Table 24 (continued)</t>
   </si>
 </sst>
 </file>
@@ -62,7 +62,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -117,7 +117,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -133,6 +133,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -429,14 +432,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -444,79 +447,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1990</v>
       </c>
@@ -528,7 +528,7 @@
         <v>1.7594032134659527</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1991</v>
       </c>
@@ -536,11 +536,11 @@
         <v>136.19999999999999</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C26" si="0">B$24/B3</f>
+        <f t="shared" ref="C3:C27" si="0">B$24/B3</f>
         <v>1.6883553597650516</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1992</v>
       </c>
@@ -552,7 +552,7 @@
         <v>1.639016393442623</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1993</v>
       </c>
@@ -564,7 +564,7 @@
         <v>1.5913771626297579</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1994</v>
       </c>
@@ -576,7 +576,7 @@
         <v>1.5516464237516872</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1995</v>
       </c>
@@ -588,7 +588,7 @@
         <v>1.5088845144356955</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1996</v>
       </c>
@@ -600,7 +600,7 @@
         <v>1.465608667941364</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1997</v>
       </c>
@@ -612,7 +612,7 @@
         <v>1.432735202492212</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1998</v>
       </c>
@@ -624,7 +624,7 @@
         <v>1.410760736196319</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1999</v>
       </c>
@@ -636,7 +636,7 @@
         <v>1.3802761104441779</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2000</v>
       </c>
@@ -648,7 +648,7 @@
         <v>1.3353890824622534</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2001</v>
       </c>
@@ -660,7 +660,7 @@
         <v>1.2984415584415585</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2002</v>
       </c>
@@ -672,7 +672,7 @@
         <v>1.2782323513062812</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2003</v>
       </c>
@@ -684,7 +684,7 @@
         <v>1.2497500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2004</v>
       </c>
@@ -696,7 +696,7 @@
         <v>1.2173319216516676</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2005</v>
       </c>
@@ -708,7 +708,7 @@
         <v>1.1774398361495135</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2006</v>
       </c>
@@ -720,7 +720,7 @@
         <v>1.1406448412698413</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2007</v>
       </c>
@@ -732,7 +732,7 @@
         <v>1.1090565346143086</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2008</v>
       </c>
@@ -744,7 +744,7 @@
         <v>1.0680482854395899</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2009</v>
       </c>
@@ -756,7 +756,7 @@
         <v>1.0718617301444506</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2010</v>
       </c>
@@ -768,7 +768,7 @@
         <v>1.0545639652199434</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2011</v>
       </c>
@@ -780,7 +780,7 @@
         <v>1.0222949332930262</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2012</v>
       </c>
@@ -792,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2013</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0.98710920899565158</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2014</v>
       </c>
@@ -814,6 +814,18 @@
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>0.97135205460935392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="2">
+        <v>237.017</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.97020044975676856</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/cpi.xlsx
+++ b/InputData/cpi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\United States\Model\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74B894A-F356-4233-B257-22D3D9ACBC5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB94311-1E34-4389-9400-32137DBA83A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="1590" windowWidth="21660" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7867" yWindow="0" windowWidth="10568" windowHeight="10095" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>CPI Consumer Price Index</t>
   </si>
@@ -93,177 +93,179 @@
     <t>Dec.</t>
   </si>
   <si>
-    <t>1968.............................................................................     .</t>
-  </si>
-  <si>
     <t>–</t>
   </si>
   <si>
-    <t>1969.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1970.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1971.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1972.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1973.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1974.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1975.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1976.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1977.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1978.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1979.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1980.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1981.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1982.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1983.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1984.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1985.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1986.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1987.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1988.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1989.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1990.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1991.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1992.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1993.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1994.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1995.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1996.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1997.............................................................................      .</t>
-  </si>
-  <si>
-    <t>1998.............................................................................     .</t>
-  </si>
-  <si>
-    <t>1999.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2000.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2001.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2002.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2003.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2004.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2005.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2006.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2007.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2008.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2009.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2010.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2011.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2012.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2013.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2014.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2015.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2016.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2017.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2018.............................................................................     .</t>
-  </si>
-  <si>
-    <t>2019.............................................................................     .</t>
-  </si>
-  <si>
-    <t>https://www.bls.gov/cpi/tables/supplemental-files/historical-cpi-u-201912.pdf</t>
+    <t>https://www.bls.gov/cpi/tables/supplemental-files/historical-cpi-u-201812.pdf</t>
+  </si>
+  <si>
+    <t>1968..</t>
+  </si>
+  <si>
+    <t>1969..</t>
+  </si>
+  <si>
+    <t>1970..</t>
+  </si>
+  <si>
+    <t>1971..</t>
+  </si>
+  <si>
+    <t>1972..</t>
+  </si>
+  <si>
+    <t>1973..</t>
+  </si>
+  <si>
+    <t>1974..</t>
+  </si>
+  <si>
+    <t>1975..</t>
+  </si>
+  <si>
+    <t>1976..</t>
+  </si>
+  <si>
+    <t>1977..</t>
+  </si>
+  <si>
+    <t>1978..</t>
+  </si>
+  <si>
+    <t>1979..</t>
+  </si>
+  <si>
+    <t>1980..</t>
+  </si>
+  <si>
+    <t>1981..</t>
+  </si>
+  <si>
+    <t>1982..</t>
+  </si>
+  <si>
+    <t>1983..</t>
+  </si>
+  <si>
+    <t>1984..</t>
+  </si>
+  <si>
+    <t>1985..</t>
+  </si>
+  <si>
+    <t>1986..</t>
+  </si>
+  <si>
+    <t>1987..</t>
+  </si>
+  <si>
+    <t>1988..</t>
+  </si>
+  <si>
+    <t>1989..</t>
+  </si>
+  <si>
+    <t>1990..</t>
+  </si>
+  <si>
+    <t>1991..</t>
+  </si>
+  <si>
+    <t>1992..</t>
+  </si>
+  <si>
+    <t>1993..</t>
+  </si>
+  <si>
+    <t>1994..</t>
+  </si>
+  <si>
+    <t>1995..</t>
+  </si>
+  <si>
+    <t>1996..</t>
+  </si>
+  <si>
+    <t>1997..</t>
+  </si>
+  <si>
+    <t>1998..</t>
+  </si>
+  <si>
+    <t>1999..</t>
+  </si>
+  <si>
+    <t>2000..</t>
+  </si>
+  <si>
+    <t>2001..</t>
+  </si>
+  <si>
+    <t>2002..</t>
+  </si>
+  <si>
+    <t>2003..</t>
+  </si>
+  <si>
+    <t>2004..</t>
+  </si>
+  <si>
+    <t>2005..</t>
+  </si>
+  <si>
+    <t>2006..</t>
+  </si>
+  <si>
+    <t>2007..</t>
+  </si>
+  <si>
+    <t>2008..</t>
+  </si>
+  <si>
+    <t>2009..</t>
+  </si>
+  <si>
+    <t>2010..</t>
+  </si>
+  <si>
+    <t>2011..</t>
+  </si>
+  <si>
+    <t>2012..</t>
+  </si>
+  <si>
+    <t>2013..</t>
+  </si>
+  <si>
+    <t>2014..</t>
+  </si>
+  <si>
+    <t>2015..</t>
+  </si>
+  <si>
+    <t>2016..</t>
+  </si>
+  <si>
+    <t>2017..</t>
+  </si>
+  <si>
+    <t>2018..</t>
+  </si>
+  <si>
+    <t>2019..</t>
+  </si>
+  <si>
+    <t>2020..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +289,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -305,26 +314,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -664,16 +669,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -681,42 +688,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -732,32 +739,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -774,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -788,15 +793,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>34.799999999999997</v>
@@ -808,15 +813,15 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>36.700000000000003</v>
@@ -828,15 +833,15 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>38.799999999999997</v>
@@ -848,15 +853,15 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>40.5</v>
@@ -868,15 +873,15 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>41.8</v>
@@ -888,15 +893,15 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>44.4</v>
@@ -908,15 +913,15 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>49.3</v>
@@ -928,15 +933,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>53.8</v>
@@ -948,15 +953,15 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>56.9</v>
@@ -968,15 +973,15 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>60.6</v>
@@ -988,15 +993,15 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>65.2</v>
@@ -1008,15 +1013,15 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>72.599999999999994</v>
@@ -1028,15 +1033,15 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>82.4</v>
@@ -1048,15 +1053,15 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>90.9</v>
@@ -1068,15 +1073,15 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>96.5</v>
@@ -1088,15 +1093,15 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>99.6</v>
@@ -1108,9 +1113,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>102.9</v>
@@ -1128,9 +1133,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>106.6</v>
@@ -1148,9 +1153,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>109.1</v>
@@ -1168,9 +1173,9 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>112.4</v>
@@ -1188,9 +1193,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>116.8</v>
@@ -1208,9 +1213,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>122.7</v>
@@ -1228,9 +1233,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>128.69999999999999</v>
@@ -1247,14 +1252,14 @@
       <c r="F28">
         <v>5.4</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="4">
         <f>$D$50/D28</f>
         <v>1.7566488140780414</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>135.19999999999999</v>
@@ -1271,17 +1276,14 @@
       <c r="F29">
         <v>4.2</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="4">
         <f t="shared" ref="G29:G57" si="0">$D$50/D29</f>
         <v>1.6857121879588841</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>139.19999999999999</v>
@@ -1298,17 +1300,14 @@
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="4">
         <f t="shared" si="0"/>
         <v>1.6364504632929435</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>143.69999999999999</v>
@@ -1325,17 +1324,14 @@
       <c r="F31">
         <v>3</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="4">
         <f t="shared" si="0"/>
         <v>1.5888858131487889</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <v>147.19999999999999</v>
@@ -1352,17 +1348,14 @@
       <c r="F32">
         <v>2.6</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="4">
         <f t="shared" si="0"/>
         <v>1.5492172739541161</v>
       </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>151.5</v>
@@ -1379,17 +1372,14 @@
       <c r="F33">
         <v>2.8</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="4">
         <f t="shared" si="0"/>
         <v>1.5065223097112861</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>155.80000000000001</v>
@@ -1406,17 +1396,14 @@
       <c r="F34">
         <v>3</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="4">
         <f t="shared" si="0"/>
         <v>1.4633142128744423</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>159.9</v>
@@ -1433,17 +1420,14 @@
       <c r="F35">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="4">
         <f t="shared" si="0"/>
         <v>1.4304922118380061</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36">
         <v>162.30000000000001</v>
@@ -1460,17 +1444,14 @@
       <c r="F36">
         <v>1.6</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="4">
         <f t="shared" si="0"/>
         <v>1.4085521472392637</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>165.4</v>
@@ -1487,17 +1468,14 @@
       <c r="F37">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="4">
         <f t="shared" si="0"/>
         <v>1.3781152460984394</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38">
         <v>170.8</v>
@@ -1514,17 +1492,14 @@
       <c r="F38">
         <v>3.4</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="4">
         <f t="shared" si="0"/>
         <v>1.3332984901277585</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39">
         <v>176.6</v>
@@ -1541,17 +1516,14 @@
       <c r="F39">
         <v>2.8</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="4">
         <f t="shared" si="0"/>
         <v>1.2964088085827217</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40">
         <v>178.9</v>
@@ -1568,17 +1540,14 @@
       <c r="F40">
         <v>1.6</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="4">
         <f t="shared" si="0"/>
         <v>1.276231239577543</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <v>183.3</v>
@@ -1595,17 +1564,14 @@
       <c r="F41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="4">
         <f t="shared" si="0"/>
         <v>1.2477934782608695</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42">
         <v>187.6</v>
@@ -1622,17 +1588,14 @@
       <c r="F42">
         <v>2.7</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="4">
         <f t="shared" si="0"/>
         <v>1.2154261514028586</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43">
         <v>193.2</v>
@@ -1649,17 +1612,14 @@
       <c r="F43">
         <v>3.4</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="4">
         <f t="shared" si="0"/>
         <v>1.1755965181771633</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44">
         <v>200.6</v>
@@ -1676,17 +1636,14 @@
       <c r="F44">
         <v>3.2</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="4">
         <f t="shared" si="0"/>
         <v>1.1388591269841271</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>205.709</v>
@@ -1703,17 +1660,14 @@
       <c r="F45">
         <v>2.8</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="4">
         <f t="shared" si="0"/>
         <v>1.107320272786025</v>
       </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <v>214.429</v>
@@ -1730,17 +1684,14 @@
       <c r="F46">
         <v>3.8</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="4">
         <f t="shared" si="0"/>
         <v>1.0663762232760343</v>
       </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47">
         <v>213.13900000000001</v>
@@ -1757,17 +1708,14 @@
       <c r="F47">
         <v>-0.4</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="4">
         <f t="shared" si="0"/>
         <v>1.0701836979169095</v>
       </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="4"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48">
         <v>217.535</v>
@@ -1784,17 +1732,14 @@
       <c r="F48">
         <v>1.6</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="4">
         <f t="shared" si="0"/>
         <v>1.0529130131709286</v>
       </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="4"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49">
         <v>223.59800000000001</v>
@@ -1811,44 +1756,38 @@
       <c r="F49">
         <v>3.2</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="4">
         <f t="shared" si="0"/>
         <v>1.0206944993976144</v>
       </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="4"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="1">
         <v>228.85</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>230.33799999999999</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>229.59399999999999</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>1.7</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>2.1</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="4"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51">
         <v>232.36600000000001</v>
@@ -1865,17 +1804,14 @@
       <c r="F51">
         <v>1.5</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="4">
         <f t="shared" si="0"/>
         <v>0.98556385942470071</v>
       </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="4"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52">
         <v>236.38399999999999</v>
@@ -1892,17 +1828,14 @@
       <c r="F52">
         <v>1.6</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="4">
         <f t="shared" si="0"/>
         <v>0.96983137334414704</v>
       </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="4"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53">
         <v>236.26499999999999</v>
@@ -1919,17 +1852,14 @@
       <c r="F53">
         <v>0.1</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="4">
         <f t="shared" si="0"/>
         <v>0.9686815713640794</v>
       </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54">
         <v>238.77799999999999</v>
@@ -1946,17 +1876,14 @@
       <c r="F54">
         <v>1.3</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="4">
         <f t="shared" si="0"/>
         <v>0.95661376543184151</v>
       </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="4"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55">
         <v>244.07599999999999</v>
@@ -1973,17 +1900,14 @@
       <c r="F55">
         <v>2.1</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="4">
         <f t="shared" si="0"/>
         <v>0.93665959530026111</v>
       </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="4"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56">
         <v>250.089</v>
@@ -2000,17 +1924,14 @@
       <c r="F56">
         <v>2.4</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="4">
         <f t="shared" si="0"/>
         <v>0.9143273584567535</v>
       </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="4"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57">
         <v>254.41200000000001</v>
@@ -2027,10 +1948,31 @@
       <c r="F57">
         <v>1.8</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="4">
         <f t="shared" si="0"/>
         <v>0.89805481563188172</v>
       </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/cpi.xlsx
+++ b/InputData/cpi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\United States\Model\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB94311-1E34-4389-9400-32137DBA83A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74B894A-F356-4233-B257-22D3D9ACBC5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7867" yWindow="0" windowWidth="10568" windowHeight="10095" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="1590" windowWidth="21660" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>CPI Consumer Price Index</t>
   </si>
@@ -93,179 +93,177 @@
     <t>Dec.</t>
   </si>
   <si>
+    <t>1968.............................................................................     .</t>
+  </si>
+  <si>
     <t>–</t>
   </si>
   <si>
-    <t>https://www.bls.gov/cpi/tables/supplemental-files/historical-cpi-u-201812.pdf</t>
-  </si>
-  <si>
-    <t>1968..</t>
-  </si>
-  <si>
-    <t>1969..</t>
-  </si>
-  <si>
-    <t>1970..</t>
-  </si>
-  <si>
-    <t>1971..</t>
-  </si>
-  <si>
-    <t>1972..</t>
-  </si>
-  <si>
-    <t>1973..</t>
-  </si>
-  <si>
-    <t>1974..</t>
-  </si>
-  <si>
-    <t>1975..</t>
-  </si>
-  <si>
-    <t>1976..</t>
-  </si>
-  <si>
-    <t>1977..</t>
-  </si>
-  <si>
-    <t>1978..</t>
-  </si>
-  <si>
-    <t>1979..</t>
-  </si>
-  <si>
-    <t>1980..</t>
-  </si>
-  <si>
-    <t>1981..</t>
-  </si>
-  <si>
-    <t>1982..</t>
-  </si>
-  <si>
-    <t>1983..</t>
-  </si>
-  <si>
-    <t>1984..</t>
-  </si>
-  <si>
-    <t>1985..</t>
-  </si>
-  <si>
-    <t>1986..</t>
-  </si>
-  <si>
-    <t>1987..</t>
-  </si>
-  <si>
-    <t>1988..</t>
-  </si>
-  <si>
-    <t>1989..</t>
-  </si>
-  <si>
-    <t>1990..</t>
-  </si>
-  <si>
-    <t>1991..</t>
-  </si>
-  <si>
-    <t>1992..</t>
-  </si>
-  <si>
-    <t>1993..</t>
-  </si>
-  <si>
-    <t>1994..</t>
-  </si>
-  <si>
-    <t>1995..</t>
-  </si>
-  <si>
-    <t>1996..</t>
-  </si>
-  <si>
-    <t>1997..</t>
-  </si>
-  <si>
-    <t>1998..</t>
-  </si>
-  <si>
-    <t>1999..</t>
-  </si>
-  <si>
-    <t>2000..</t>
-  </si>
-  <si>
-    <t>2001..</t>
-  </si>
-  <si>
-    <t>2002..</t>
-  </si>
-  <si>
-    <t>2003..</t>
-  </si>
-  <si>
-    <t>2004..</t>
-  </si>
-  <si>
-    <t>2005..</t>
-  </si>
-  <si>
-    <t>2006..</t>
-  </si>
-  <si>
-    <t>2007..</t>
-  </si>
-  <si>
-    <t>2008..</t>
-  </si>
-  <si>
-    <t>2009..</t>
-  </si>
-  <si>
-    <t>2010..</t>
-  </si>
-  <si>
-    <t>2011..</t>
-  </si>
-  <si>
-    <t>2012..</t>
-  </si>
-  <si>
-    <t>2013..</t>
-  </si>
-  <si>
-    <t>2014..</t>
-  </si>
-  <si>
-    <t>2015..</t>
-  </si>
-  <si>
-    <t>2016..</t>
-  </si>
-  <si>
-    <t>2017..</t>
-  </si>
-  <si>
-    <t>2018..</t>
-  </si>
-  <si>
-    <t>2019..</t>
-  </si>
-  <si>
-    <t>2020..</t>
+    <t>1969.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1970.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1971.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1972.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1973.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1974.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1975.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1976.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1977.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1978.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1979.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1980.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1981.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1982.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1983.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1984.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1985.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1986.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1987.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1988.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1989.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1990.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1991.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1992.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1993.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1994.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1995.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1996.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1997.............................................................................      .</t>
+  </si>
+  <si>
+    <t>1998.............................................................................     .</t>
+  </si>
+  <si>
+    <t>1999.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2000.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2001.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2002.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2003.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2004.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2005.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2006.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2007.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2008.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2009.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2010.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2011.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2012.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2013.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2014.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2015.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2016.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2017.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2018.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2019.............................................................................     .</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/cpi/tables/supplemental-files/historical-cpi-u-201912.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,13 +287,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -314,22 +305,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -669,18 +664,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -688,42 +681,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -739,30 +732,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -779,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -793,15 +788,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>34.799999999999997</v>
@@ -813,15 +808,15 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>36.700000000000003</v>
@@ -833,15 +828,15 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>38.799999999999997</v>
@@ -853,15 +848,15 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>40.5</v>
@@ -873,15 +868,15 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>41.8</v>
@@ -893,15 +888,15 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>44.4</v>
@@ -913,15 +908,15 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>49.3</v>
@@ -933,15 +928,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>53.8</v>
@@ -953,15 +948,15 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>56.9</v>
@@ -973,15 +968,15 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>60.6</v>
@@ -993,15 +988,15 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>65.2</v>
@@ -1013,15 +1008,15 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>72.599999999999994</v>
@@ -1033,15 +1028,15 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>82.4</v>
@@ -1053,15 +1048,15 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>90.9</v>
@@ -1073,15 +1068,15 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>96.5</v>
@@ -1093,15 +1088,15 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>99.6</v>
@@ -1113,9 +1108,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>102.9</v>
@@ -1133,9 +1128,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>106.6</v>
@@ -1153,9 +1148,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>109.1</v>
@@ -1173,9 +1168,9 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>112.4</v>
@@ -1193,9 +1188,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>116.8</v>
@@ -1213,9 +1208,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>122.7</v>
@@ -1233,9 +1228,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28">
         <v>128.69999999999999</v>
@@ -1252,14 +1247,14 @@
       <c r="F28">
         <v>5.4</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="6">
         <f>$D$50/D28</f>
         <v>1.7566488140780414</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>135.19999999999999</v>
@@ -1276,14 +1271,17 @@
       <c r="F29">
         <v>4.2</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="6">
         <f t="shared" ref="G29:G57" si="0">$D$50/D29</f>
         <v>1.6857121879588841</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>139.19999999999999</v>
@@ -1300,14 +1298,17 @@
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="6">
         <f t="shared" si="0"/>
         <v>1.6364504632929435</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>143.69999999999999</v>
@@ -1324,14 +1325,17 @@
       <c r="F31">
         <v>3</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="6">
         <f t="shared" si="0"/>
         <v>1.5888858131487889</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>147.19999999999999</v>
@@ -1348,14 +1352,17 @@
       <c r="F32">
         <v>2.6</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="6">
         <f t="shared" si="0"/>
         <v>1.5492172739541161</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <v>151.5</v>
@@ -1372,14 +1379,17 @@
       <c r="F33">
         <v>2.8</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="6">
         <f t="shared" si="0"/>
         <v>1.5065223097112861</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34">
         <v>155.80000000000001</v>
@@ -1396,14 +1406,17 @@
       <c r="F34">
         <v>3</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="6">
         <f t="shared" si="0"/>
         <v>1.4633142128744423</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35">
         <v>159.9</v>
@@ -1420,14 +1433,17 @@
       <c r="F35">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="6">
         <f t="shared" si="0"/>
         <v>1.4304922118380061</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>162.30000000000001</v>
@@ -1444,14 +1460,17 @@
       <c r="F36">
         <v>1.6</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="6">
         <f t="shared" si="0"/>
         <v>1.4085521472392637</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37">
         <v>165.4</v>
@@ -1468,14 +1487,17 @@
       <c r="F37">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="6">
         <f t="shared" si="0"/>
         <v>1.3781152460984394</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>170.8</v>
@@ -1492,14 +1514,17 @@
       <c r="F38">
         <v>3.4</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="6">
         <f t="shared" si="0"/>
         <v>1.3332984901277585</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M38" s="2"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39">
         <v>176.6</v>
@@ -1516,14 +1541,17 @@
       <c r="F39">
         <v>2.8</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="6">
         <f t="shared" si="0"/>
         <v>1.2964088085827217</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <v>178.9</v>
@@ -1540,14 +1568,17 @@
       <c r="F40">
         <v>1.6</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="6">
         <f t="shared" si="0"/>
         <v>1.276231239577543</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41">
         <v>183.3</v>
@@ -1564,14 +1595,17 @@
       <c r="F41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="6">
         <f t="shared" si="0"/>
         <v>1.2477934782608695</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42">
         <v>187.6</v>
@@ -1588,14 +1622,17 @@
       <c r="F42">
         <v>2.7</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="6">
         <f t="shared" si="0"/>
         <v>1.2154261514028586</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43">
         <v>193.2</v>
@@ -1612,14 +1649,17 @@
       <c r="F43">
         <v>3.4</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="6">
         <f t="shared" si="0"/>
         <v>1.1755965181771633</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M43" s="2"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44">
         <v>200.6</v>
@@ -1636,14 +1676,17 @@
       <c r="F44">
         <v>3.2</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="6">
         <f t="shared" si="0"/>
         <v>1.1388591269841271</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45">
         <v>205.709</v>
@@ -1660,14 +1703,17 @@
       <c r="F45">
         <v>2.8</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="6">
         <f t="shared" si="0"/>
         <v>1.107320272786025</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46">
         <v>214.429</v>
@@ -1684,14 +1730,17 @@
       <c r="F46">
         <v>3.8</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="6">
         <f t="shared" si="0"/>
         <v>1.0663762232760343</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47">
         <v>213.13900000000001</v>
@@ -1708,14 +1757,17 @@
       <c r="F47">
         <v>-0.4</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="6">
         <f t="shared" si="0"/>
         <v>1.0701836979169095</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48">
         <v>217.535</v>
@@ -1732,14 +1784,17 @@
       <c r="F48">
         <v>1.6</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="6">
         <f t="shared" si="0"/>
         <v>1.0529130131709286</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49">
         <v>223.59800000000001</v>
@@ -1756,38 +1811,44 @@
       <c r="F49">
         <v>3.2</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="6">
         <f t="shared" si="0"/>
         <v>1.0206944993976144</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50">
+        <v>228.85</v>
+      </c>
+      <c r="C50">
+        <v>230.33799999999999</v>
+      </c>
+      <c r="D50">
+        <v>229.59399999999999</v>
+      </c>
+      <c r="E50">
+        <v>1.7</v>
+      </c>
+      <c r="F50">
+        <v>2.1</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>66</v>
-      </c>
-      <c r="B50" s="1">
-        <v>228.85</v>
-      </c>
-      <c r="C50" s="1">
-        <v>230.33799999999999</v>
-      </c>
-      <c r="D50" s="1">
-        <v>229.59399999999999</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="G50" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>67</v>
       </c>
       <c r="B51">
         <v>232.36600000000001</v>
@@ -1804,14 +1865,17 @@
       <c r="F51">
         <v>1.5</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="6">
         <f t="shared" si="0"/>
         <v>0.98556385942470071</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52">
         <v>236.38399999999999</v>
@@ -1828,14 +1892,17 @@
       <c r="F52">
         <v>1.6</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="6">
         <f t="shared" si="0"/>
         <v>0.96983137334414704</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53">
         <v>236.26499999999999</v>
@@ -1852,14 +1919,17 @@
       <c r="F53">
         <v>0.1</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="6">
         <f t="shared" si="0"/>
         <v>0.9686815713640794</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54">
         <v>238.77799999999999</v>
@@ -1876,14 +1946,17 @@
       <c r="F54">
         <v>1.3</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="6">
         <f t="shared" si="0"/>
         <v>0.95661376543184151</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55">
         <v>244.07599999999999</v>
@@ -1900,14 +1973,17 @@
       <c r="F55">
         <v>2.1</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="6">
         <f t="shared" si="0"/>
         <v>0.93665959530026111</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56">
         <v>250.089</v>
@@ -1924,14 +2000,17 @@
       <c r="F56">
         <v>2.4</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="6">
         <f t="shared" si="0"/>
         <v>0.9143273584567535</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="4"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57">
         <v>254.41200000000001</v>
@@ -1948,31 +2027,10 @@
       <c r="F57">
         <v>1.8</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="6">
         <f t="shared" si="0"/>
         <v>0.89805481563188172</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/cpi.xlsx
+++ b/InputData/cpi.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EBE68E1-0A35-441E-9C13-8DD4B5F8F5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660CF4A4-614C-46FA-A68D-A9FB7C757A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
   <si>
     <t>CPI Consumer Price Index</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Historical CPI-U</t>
   </si>
   <si>
-    <t>Page 4</t>
-  </si>
-  <si>
     <t>Historical Consumer Price Index for All Urban Consumers (CPI-U): U.S. city average, all items, index</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>–</t>
   </si>
   <si>
-    <t>https://www.bls.gov/cpi/tables/supplemental-files/historical-cpi-u-201912.pdf</t>
-  </si>
-  <si>
     <t>1968............................................................................. .</t>
   </si>
   <si>
@@ -259,6 +253,15 @@
   </si>
   <si>
     <t>2021............................................................................. .</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/cpi/tables/supplemental-files/historical-cpi-u-202212.pdf</t>
+  </si>
+  <si>
+    <t>Pages 4 and 5</t>
+  </si>
+  <si>
+    <t>2022............................................................................. .</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,12 +704,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -730,20 +733,17 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,17 +754,17 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -772,13 +772,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>8</v>
@@ -786,27 +786,27 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>34.799999999999997</v>
@@ -820,13 +820,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>36.700000000000003</v>
@@ -840,13 +840,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>38.799999999999997</v>
@@ -860,13 +860,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>40.5</v>
@@ -880,13 +880,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>41.8</v>
@@ -900,13 +900,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>44.4</v>
@@ -920,13 +920,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>49.3</v>
@@ -940,13 +940,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>53.8</v>
@@ -960,13 +960,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>56.9</v>
@@ -980,13 +980,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>60.6</v>
@@ -1000,13 +1000,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>65.2</v>
@@ -1020,13 +1020,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>72.599999999999994</v>
@@ -1040,13 +1040,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>82.4</v>
@@ -1060,13 +1060,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>90.9</v>
@@ -1080,13 +1080,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>96.5</v>
@@ -1100,13 +1100,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>99.6</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>102.9</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>106.6</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>109.1</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>112.4</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>116.8</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>122.7</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>128.69999999999999</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>135.19999999999999</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>139.19999999999999</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>143.69999999999999</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>147.19999999999999</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>151.5</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34">
         <v>155.80000000000001</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>159.9</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36">
         <v>162.30000000000001</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>165.4</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>170.8</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>176.6</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B40">
         <v>178.9</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41">
         <v>183.3</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B42">
         <v>187.6</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43">
         <v>193.2</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44">
         <v>200.6</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45">
         <v>205.709</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46">
         <v>214.429</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47">
         <v>213.13900000000001</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48">
         <v>217.535</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B49">
         <v>223.59800000000001</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50">
         <v>228.85</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51">
         <v>232.36600000000001</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B52">
         <v>236.38399999999999</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53">
         <v>236.26499999999999</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54">
         <v>238.77799999999999</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55">
         <v>244.07599999999999</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56">
         <v>250.089</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57">
         <v>254.41200000000001</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <v>257.55700000000002</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59">
         <v>266.23599999999999</v>
@@ -2089,6 +2089,33 @@
         <f>$D$50/D59</f>
         <v>0.84730412960844359</v>
       </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60">
+        <v>288.34699999999998</v>
+      </c>
+      <c r="C60">
+        <v>296.96300000000002</v>
+      </c>
+      <c r="D60">
+        <v>292.65499999999997</v>
+      </c>
+      <c r="E60">
+        <v>6.5</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" s="6">
+        <f>$D$50/D60</f>
+        <v>0.78452102304761584</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G62" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/cpi.xlsx
+++ b/InputData/cpi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{698147E0-8145-46CB-AA60-1ED82BEC5780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B39BD3-42AA-4DDE-BCD1-0F086876A133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>CPI Consumer Price Index</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>https://data.bls.gov/pdq/SurveyOutputServlet</t>
+  </si>
+  <si>
+    <t>2024............................................................................. .</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -717,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,7 +2111,22 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G62" s="6"/>
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62">
+        <v>312.14499999999998</v>
+      </c>
+      <c r="C62">
+        <v>315.233</v>
+      </c>
+      <c r="D62">
+        <v>313.68900000000002</v>
+      </c>
+      <c r="G62" s="6">
+        <f>$D$50/D62</f>
+        <v>0.73191600598044548</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
